--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -776,26 +779,29 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -803,11 +809,11 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -820,19 +826,22 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -841,17 +850,17 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,25 +986,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -996,11 +1015,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,16 +1098,17 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1097,14 +1123,14 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1117,38 +1143,41 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1161,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,13 +1211,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1206,11 +1239,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1223,38 +1256,41 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,25 +1350,28 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
@@ -1338,11 +1380,11 @@
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,25 +1491,28 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -1470,11 +1521,11 @@
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1487,25 +1538,28 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -1514,11 +1568,11 @@
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1531,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,13 +1773,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1734,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1751,25 +1820,28 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -1778,11 +1850,11 @@
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1795,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,25 +1914,28 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -1866,11 +1944,11 @@
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1883,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,17 +2053,18 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,13 +2145,16 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2074,7 +2166,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2083,11 +2175,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2100,20 +2192,23 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2224,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2144,28 +2239,31 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -2173,8 +2271,8 @@
       <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>700</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2188,22 +2286,25 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
@@ -2212,13 +2313,13 @@
         <v>700</v>
       </c>
       <c r="J46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>800</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2232,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,28 +2392,28 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1500</v>
       </c>
       <c r="H48" s="3">
         <v>1500</v>
       </c>
       <c r="I48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J48" s="3">
         <v>1600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1700</v>
       </c>
       <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>1700</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2478,8 +2597,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2635,37 +2765,40 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2679,23 +2812,23 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1200</v>
       </c>
       <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2708,40 +2841,43 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>4200</v>
       </c>
       <c r="F59" s="3">
         <v>4200</v>
       </c>
       <c r="G59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>4000</v>
       </c>
       <c r="K59" s="3">
         <v>4000</v>
       </c>
       <c r="L59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -2750,42 +2886,45 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -2794,10 +2933,13 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,22 +2982,25 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,40 +3170,43 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3058,10 +3215,13 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,37 +3424,40 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-400</v>
       </c>
       <c r="M72" s="3">
         <v>-400</v>
@@ -3293,13 +3466,16 @@
         <v>-400</v>
       </c>
       <c r="O72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,40 +3612,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3600</v>
       </c>
       <c r="J76" s="3">
         <v>-3600</v>
       </c>
       <c r="K76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -3472,10 +3657,13 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,74 +3706,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -3594,11 +3788,11 @@
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3611,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3656,11 +3854,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,41 +4106,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3969,23 +4189,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,17 +4313,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4116,8 +4345,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4125,14 +4354,17 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,41 +4567,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4369,17 +4614,20 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4398,8 +4646,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -4413,17 +4661,20 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -4455,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,122 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -782,44 +790,50 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,44 +843,50 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,19 +1023,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1012,20 +1052,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,22 +1151,24 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1126,17 +1180,17 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1146,44 +1200,50 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1253,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,20 +1278,22 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1242,14 +1310,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1259,44 +1327,50 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1380,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,44 +1433,50 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1486,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1592,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1541,44 +1645,50 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1698,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,20 +1910,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1806,14 +1946,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1823,44 +1963,50 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +2016,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +2069,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2122,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2226,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,14 +2237,14 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,19 +2328,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2169,23 +2355,23 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,17 +2396,17 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
@@ -2227,11 +2419,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2242,43 +2434,49 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>700</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2289,44 +2487,50 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
       </c>
       <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,44 +2593,50 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2600,11 +2840,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2911,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3010,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2768,37 +3030,43 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2815,26 +3083,26 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2844,102 +3112,120 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,13 +3271,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3000,13 +3292,13 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-400</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
       </c>
       <c r="P72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,96 +4087,108 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4198,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3857,14 +4255,14 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4615,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,23 +4770,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4348,23 +4808,29 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,70 +5056,82 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4649,11 +5147,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4664,23 +5162,29 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,23 +815,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -832,11 +839,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,28 +856,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -879,17 +889,17 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,17 +1066,17 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1064,11 +1084,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,25 +1179,26 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1186,14 +1213,14 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1206,47 +1233,50 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1289,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,23 +1313,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1316,11 +1350,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1333,47 +1367,50 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,34 +1479,37 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
@@ -1475,11 +1518,11 @@
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1492,8 +1535,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,34 +1647,37 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
@@ -1634,11 +1686,11 @@
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1651,34 +1703,37 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
@@ -1687,11 +1742,11 @@
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1704,8 +1759,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,23 +1983,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1952,11 +2022,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1969,34 +2039,37 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
@@ -2005,11 +2078,11 @@
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2022,8 +2095,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,34 +2151,37 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
@@ -2111,11 +2190,11 @@
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2128,66 +2207,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,13 +2314,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2243,11 +2330,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,22 +2424,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2361,7 +2454,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2370,11 +2463,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2387,29 +2480,32 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
@@ -2425,8 +2521,8 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2440,37 +2536,40 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
       <c r="L45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
@@ -2478,8 +2577,8 @@
       <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>700</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2493,31 +2592,34 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
@@ -2526,13 +2628,13 @@
         <v>700</v>
       </c>
       <c r="M46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2608,7 +2716,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2617,28 +2725,28 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1500</v>
       </c>
       <c r="L48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M48" s="3">
         <v>1600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1700</v>
       </c>
       <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>1700</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2846,8 +2966,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3040,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3036,37 +3167,40 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3092,20 +3226,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
       </c>
       <c r="M58" s="3">
         <v>1200</v>
       </c>
       <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3118,49 +3252,52 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>2300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4200</v>
       </c>
       <c r="I59" s="3">
         <v>4200</v>
       </c>
       <c r="J59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4000</v>
       </c>
       <c r="N59" s="3">
         <v>4000</v>
       </c>
       <c r="O59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3169,51 +3306,54 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3222,10 +3362,13 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3289,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,49 +3644,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3540,10 +3698,13 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,46 +3946,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-400</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
@@ -3823,13 +3997,16 @@
         <v>-400</v>
       </c>
       <c r="R72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,49 +4170,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3600</v>
       </c>
       <c r="M76" s="3">
         <v>-3600</v>
       </c>
       <c r="N76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4038,10 +4224,13 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,92 +4282,98 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
@@ -4187,11 +4382,11 @@
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4204,8 +4399,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4261,11 +4460,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,50 +4757,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +4813,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,22 +4837,23 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4640,23 +4861,23 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,26 +5003,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4814,8 +5044,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -4823,14 +5053,17 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,50 +5305,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5115,26 +5361,29 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5153,8 +5402,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -5168,26 +5417,29 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,44 +763,44 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -803,53 +810,59 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -859,53 +872,59 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -915,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,8 +1108,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1081,20 +1120,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,31 +1231,33 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1216,17 +1269,17 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1236,53 +1289,59 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1292,8 +1351,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,29 +1379,31 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1353,14 +1420,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1370,53 +1437,59 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,53 +1561,59 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1538,8 +1623,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1594,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,53 +1747,59 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1706,53 +1809,59 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1762,8 +1871,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,29 +2119,35 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2025,14 +2164,14 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2042,53 +2181,59 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2098,8 +2243,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,53 +2305,59 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2210,69 +2367,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,32 +2486,34 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2371,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2436,19 +2621,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2457,23 +2642,23 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2483,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,26 +2683,26 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
@@ -2524,11 +2715,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2539,52 +2730,58 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>4300</v>
-      </c>
       <c r="G45" s="3">
-        <v>4100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>4300</v>
       </c>
       <c r="I45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>700</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2595,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>700</v>
       </c>
       <c r="M46" s="3">
         <v>700</v>
       </c>
       <c r="N46" s="3">
+        <v>700</v>
+      </c>
+      <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,53 +2916,59 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2763,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,31 +3164,37 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2969,11 +3208,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2987,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3099,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3170,37 +3431,43 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3229,23 +3496,23 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3255,120 +3522,138 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3438,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3447,13 +3738,13 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3479,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3958,55 +4305,61 @@
         <v>-4600</v>
       </c>
       <c r="E72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-400</v>
       </c>
       <c r="R72" s="3">
         <v>-400</v>
       </c>
       <c r="S72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F76" s="3">
         <v>6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
       </c>
       <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,114 +4662,126 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4402,8 +4791,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4463,14 +4860,14 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4480,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,52 +5277,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4894,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,32 +5459,38 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>7200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5047,23 +5506,29 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,88 +5793,100 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5405,11 +5902,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
@@ -5420,32 +5917,38 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>7900</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5474,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,156 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -816,59 +824,65 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,59 +892,65 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +960,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1154,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1126,20 +1166,20 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1150,8 +1190,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,37 +1285,39 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1275,17 +1329,17 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5800</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1295,59 +1349,65 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1417,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1447,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,26 +1458,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1426,14 +1494,14 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1443,59 +1511,65 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1579,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,59 +1647,65 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1629,23 +1715,29 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,59 +1851,65 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1815,59 +1919,65 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-4300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1877,8 +1987,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2259,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,26 +2274,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2170,14 +2310,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2187,59 +2327,65 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-4300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2249,8 +2395,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,59 +2463,65 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-4300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2373,75 +2531,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,38 +2660,40 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2724,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,13 +2792,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2627,19 +2813,19 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2648,23 +2834,23 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,41 +2860,47 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
@@ -2721,11 +2913,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -2736,58 +2928,64 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>700</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
+        <v>700</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2798,59 +2996,65 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2860,31 +3064,37 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2922,59 +3132,65 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2984,31 +3200,37 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3404,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3196,11 +3436,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3214,11 +3454,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,59 +3540,65 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3356,8 +3608,14 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,13 +3664,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3437,60 +3699,66 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3502,23 +3770,23 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3528,132 +3796,150 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,13 +4000,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3735,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3744,13 +4036,13 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4272,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4600</v>
+        <v>-8100</v>
       </c>
       <c r="E72" s="3">
-        <v>-4800</v>
+        <v>-4300</v>
       </c>
       <c r="F72" s="3">
         <v>-4600</v>
       </c>
       <c r="G72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-400</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
       </c>
       <c r="U72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F76" s="3">
         <v>7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,126 +5046,138 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-4300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4797,8 +5187,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5217,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4866,14 +5264,14 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5621,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5202,61 +5636,67 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,58 +5719,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,38 +5919,44 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>7200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5512,23 +5972,29 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6285,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5808,61 +6300,67 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,29 +6368,29 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5908,11 +6406,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -5923,8 +6421,14 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5932,29 +6436,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>7900</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6487,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>700</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
@@ -783,41 +786,41 @@
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -830,26 +833,29 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -857,23 +863,23 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -881,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,43 +904,46 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -943,17 +952,17 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,17 +1179,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1178,11 +1197,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,40 +1312,41 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1335,14 +1361,14 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5800</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1355,62 +1381,65 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>200</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-5100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1423,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,29 +1491,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1500,11 +1533,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1517,62 +1550,65 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,49 +1692,52 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
@@ -1704,11 +1746,11 @@
         <v>-400</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1721,26 +1763,29 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,49 +1905,52 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
@@ -1908,11 +1959,11 @@
         <v>-400</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1925,49 +1976,52 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
@@ -1976,11 +2030,11 @@
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -1993,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2274,29 +2343,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2316,11 +2385,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2333,49 +2402,52 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
@@ -2384,11 +2456,11 @@
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,49 +2544,52 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
@@ -2520,11 +2598,11 @@
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2537,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,29 +2747,30 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2692,11 +2778,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2730,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2807,7 +2899,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2819,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>1300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2840,7 +2932,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2849,11 +2941,11 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2866,44 +2958,47 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
@@ -2919,8 +3014,8 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2934,52 +3029,55 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
@@ -2987,8 +3085,8 @@
       <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>700</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3002,46 +3100,49 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>700</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
@@ -3050,13 +3151,13 @@
         <v>700</v>
       </c>
       <c r="R46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3070,16 +3171,19 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3200,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3138,22 +3242,25 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3162,7 +3269,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -3171,28 +3278,28 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1500</v>
       </c>
       <c r="P48" s="3">
         <v>1500</v>
       </c>
       <c r="Q48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R48" s="3">
         <v>1600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1700</v>
       </c>
       <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>1700</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3206,16 +3313,19 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3232,8 +3342,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,31 +3526,34 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3442,8 +3561,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3460,8 +3579,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,62 +3668,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8100</v>
       </c>
       <c r="G54" s="3">
         <v>8100</v>
       </c>
       <c r="H54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3614,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3675,7 +3805,7 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3705,46 +3835,49 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>900</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3760,8 +3893,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3776,20 +3909,20 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1200</v>
       </c>
       <c r="R58" s="3">
         <v>1200</v>
       </c>
       <c r="S58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,64 +3935,67 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>2300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>4200</v>
       </c>
       <c r="N59" s="3">
         <v>4200</v>
       </c>
       <c r="O59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>4000</v>
       </c>
       <c r="S59" s="3">
         <v>4000</v>
       </c>
       <c r="T59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -3868,66 +4004,69 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -3936,10 +4075,13 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,17 +4148,20 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
@@ -4033,19 +4178,19 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4074,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,64 +4432,67 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
       </c>
       <c r="F66" s="3">
         <v>900</v>
       </c>
       <c r="G66" s="3">
+        <v>900</v>
+      </c>
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4344,10 +4501,13 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,61 +4814,64 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-400</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
@@ -4707,13 +4880,16 @@
         <v>-400</v>
       </c>
       <c r="W72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,64 +5098,67 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-3600</v>
       </c>
       <c r="R76" s="3">
         <v>-3600</v>
       </c>
       <c r="S76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -4982,10 +5167,13 @@
         <v>-200</v>
       </c>
       <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,122 +5240,128 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
@@ -5176,11 +5370,11 @@
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -5193,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5270,11 +5468,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,65 +5840,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -5695,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5735,23 +5955,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5759,23 +5979,23 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,41 +6151,44 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5978,8 +6207,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
@@ -5987,14 +6216,17 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,65 +6533,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6359,41 +6604,44 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6412,8 +6660,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -6427,41 +6675,44 @@
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7900</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -6493,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,176 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>700</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -836,68 +844,74 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,68 +921,74 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1104,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1181,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1222,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1194,20 +1234,20 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1218,8 +1258,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,46 +1365,48 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1364,17 +1418,17 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5800</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1384,68 +1438,74 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-5100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1455,8 +1515,14 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1548,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,32 +1562,32 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1536,14 +1604,14 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1553,68 +1621,74 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,8 +1698,14 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,68 +1775,74 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1852,14 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,23 +1867,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,68 +2006,74 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -1979,68 +2083,74 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2160,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2468,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,32 +2486,32 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2388,14 +2528,14 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2405,68 +2545,74 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2622,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,68 +2699,74 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2776,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,47 +2920,49 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +2993,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,23 +3070,29 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2914,19 +3100,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>1300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2935,23 +3121,23 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2961,8 +3147,14 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2973,38 +3165,38 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -3017,11 +3209,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
@@ -3032,67 +3224,73 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>700</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>700</v>
+      </c>
+      <c r="V45" s="3">
+        <v>700</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3103,68 +3301,74 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F46" s="3">
         <v>9200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
       </c>
       <c r="R46" s="3">
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3378,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3185,11 +3395,11 @@
       <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -3203,11 +3413,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3245,68 +3455,74 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3316,8 +3532,14 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3327,11 +3549,11 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3345,11 +3567,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,19 +3763,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3555,20 +3795,20 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3582,11 +3822,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,68 +3917,74 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3994,14 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,22 +4056,24 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3838,37 +4100,43 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,14 +4144,14 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3896,11 +4164,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3912,23 +4180,23 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,150 +4206,168 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,23 +4437,29 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -4181,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4190,13 +4482,13 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
       <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-4800</v>
       </c>
       <c r="I72" s="3">
         <v>-4600</v>
       </c>
       <c r="J72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-400</v>
       </c>
       <c r="W72" s="3">
         <v>-400</v>
       </c>
       <c r="X72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,144 +5621,156 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5780,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,20 +5813,22 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -5471,14 +5869,14 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
       </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5958,50 +6400,50 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6012,8 +6454,14 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,47 +6608,53 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6210,23 +6670,29 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,84 +7022,96 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>5800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-300</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6625,29 +7123,29 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6663,11 +7161,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
@@ -6678,47 +7176,53 @@
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +7251,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,189 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>700</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -850,74 +857,80 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,74 +940,80 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,16 +1220,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1228,8 +1267,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1240,20 +1279,20 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,52 +1418,54 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1424,17 +1477,17 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5800</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1444,74 +1497,80 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-5100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1521,8 +1580,14 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1568,32 +1635,32 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1610,14 +1677,14 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1627,74 +1694,80 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,8 +1777,14 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,74 +1860,80 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
       </c>
       <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-4300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1858,8 +1943,14 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1873,23 +1964,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,74 +2109,80 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
       </c>
       <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2089,74 +2192,80 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X27" s="3">
         <v>-4300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2166,8 +2275,14 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2492,32 +2631,32 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2534,14 +2673,14 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2551,74 +2690,80 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X33" s="3">
         <v>-4300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2628,8 +2773,14 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,74 +2856,80 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X35" s="3">
         <v>-4300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2782,90 +2939,102 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,53 +3093,55 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2999,8 +3172,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,29 +3255,35 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -3106,19 +3291,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>7400</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>1300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3127,23 +3312,23 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3153,16 +3338,22 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -3171,38 +3362,38 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
@@ -3215,11 +3406,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
@@ -3230,8 +3421,14 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3239,64 +3436,64 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>700</v>
-      </c>
-      <c r="U45" s="3">
-        <v>700</v>
       </c>
       <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>700</v>
+      </c>
+      <c r="X45" s="3">
+        <v>700</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3307,74 +3504,80 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>700</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
       </c>
       <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
+        <v>700</v>
+      </c>
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3384,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3401,11 +3610,11 @@
       <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3419,11 +3628,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3461,74 +3670,80 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3538,8 +3753,14 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3555,11 +3776,11 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3573,11 +3794,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3783,11 +4022,11 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3801,20 +4040,20 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3828,11 +4067,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,74 +4168,80 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F54" s="3">
         <v>10600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>11700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2600</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,28 +4317,30 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -4106,37 +4367,43 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4150,14 +4417,14 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4170,11 +4437,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4186,23 +4453,23 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4212,162 +4479,180 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
       <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,29 +4728,35 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -4479,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4488,13 +4779,13 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
       </c>
       <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-4800</v>
       </c>
       <c r="K72" s="3">
         <v>-4600</v>
       </c>
       <c r="L72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-400</v>
       </c>
       <c r="Y72" s="3">
         <v>-400</v>
       </c>
       <c r="Z72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>300</v>
+      </c>
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-200</v>
       </c>
       <c r="Z76" s="3">
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,156 +6004,168 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X81" s="3">
         <v>-4300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5786,8 +6175,14 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,26 +6210,28 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5875,14 +6272,14 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K89" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>800</v>
+      </c>
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,73 +6822,75 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,53 +7067,59 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-3900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6676,23 +7135,29 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,96 +7513,108 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-300</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -7129,29 +7626,29 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7167,11 +7664,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
@@ -7182,53 +7679,59 @@
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,203 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
@@ -863,80 +871,86 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>600</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
         <v>0</v>
       </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,80 +960,86 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1049,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1086,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1171,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,23 +1260,29 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,8 +1313,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1285,20 +1325,20 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1309,8 +1349,14 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1438,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,58 +1472,60 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1483,17 +1537,17 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>5800</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
@@ -1503,80 +1557,86 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1586,8 +1646,14 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1683,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1641,32 +1709,32 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1683,14 +1751,14 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1700,80 +1768,86 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,8 +1857,14 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,80 +1946,86 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
       <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -1949,8 +2035,14 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1970,23 +2062,23 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2124,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,80 +2213,86 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
       <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2198,80 +2302,86 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
       </c>
       <c r="X27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2391,14 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2480,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2569,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2658,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2747,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2637,32 +2777,32 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2679,14 +2819,14 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2696,80 +2836,86 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
       </c>
       <c r="X33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2779,8 +2925,14 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,80 +3014,86 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
       </c>
       <c r="X35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -2945,96 +3103,108 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3234,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,59 +3267,61 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -3178,8 +3352,14 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,35 +3441,41 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3297,19 +3483,19 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>7400</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3318,23 +3504,23 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3344,22 +3530,28 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -3368,38 +3560,38 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
@@ -3412,11 +3604,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
@@ -3427,79 +3619,85 @@
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>4300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
-      </c>
-      <c r="V45" s="3">
-        <v>700</v>
-      </c>
-      <c r="W45" s="3">
-        <v>700</v>
       </c>
       <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>700</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3510,80 +3708,86 @@
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
-      </c>
-      <c r="T46" s="3">
-        <v>700</v>
-      </c>
-      <c r="U46" s="3">
-        <v>700</v>
       </c>
       <c r="V46" s="3">
         <v>700</v>
       </c>
       <c r="W46" s="3">
+        <v>700</v>
+      </c>
+      <c r="X46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
@@ -3593,8 +3797,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3616,11 +3826,11 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -3634,11 +3844,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3676,80 +3886,86 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3759,8 +3975,14 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3782,11 +4004,11 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3800,11 +4022,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3842,8 +4064,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4153,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4242,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4028,11 +4268,11 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -4046,20 +4286,20 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -4073,11 +4313,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4091,8 +4331,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,80 +4420,86 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2600</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
@@ -4257,8 +4509,14 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4546,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,34 +4579,36 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -4373,37 +4635,43 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4423,14 +4691,14 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4443,11 +4711,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4459,23 +4727,23 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4485,174 +4753,192 @@
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
       <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
       <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5020,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4743,26 +5035,26 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -4776,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4785,13 +5077,13 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4817,8 +5109,14 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5198,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5287,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5376,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
       <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5502,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5587,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5676,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5765,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5854,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-4800</v>
       </c>
       <c r="M72" s="3">
         <v>-4600</v>
       </c>
       <c r="N72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-7200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-400</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6032,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6121,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6210,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,168 +6388,180 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
       </c>
       <c r="X81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6181,8 +6571,14 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6608,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,23 +6619,23 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -6278,14 +6676,14 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6295,8 +6693,14 @@
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6782,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6871,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6960,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7049,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7138,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M89" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>800</v>
+      </c>
+      <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,23 +7264,25 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6850,53 +7292,53 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
@@ -6907,8 +7349,14 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7438,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,59 +7527,65 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7141,23 +7601,29 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7653,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7738,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7827,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7916,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,108 +8005,120 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-300</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -7632,29 +8130,29 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7670,11 +8168,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
@@ -7685,59 +8183,65 @@
       <c r="AC101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>5300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8270,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIXN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>AIXN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43069</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42978</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42886</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42794</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
@@ -830,41 +834,41 @@
         <v>700</v>
       </c>
       <c r="P8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
@@ -877,22 +881,25 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
@@ -901,23 +908,23 @@
         <v>600</v>
       </c>
       <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -925,23 +932,23 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
@@ -949,11 +956,11 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,64 +973,67 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-200</v>
       </c>
       <c r="I10" s="3">
         <v>-200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -1032,17 +1042,17 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,26 +1283,29 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1319,17 +1339,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1337,11 +1357,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,61 +1500,62 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1543,14 +1570,14 @@
         <v>400</v>
       </c>
       <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5800</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
@@ -1563,83 +1590,86 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>200</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-400</v>
       </c>
       <c r="Y18" s="3">
         <v>-400</v>
       </c>
       <c r="Z18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1682,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,13 +1718,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1715,29 +1749,29 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1757,11 +1791,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1774,83 +1808,86 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-400</v>
       </c>
       <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
-      </c>
-      <c r="M21" s="3">
-        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1863,8 +1900,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1952,70 +1992,73 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
       </c>
       <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>200</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-400</v>
       </c>
       <c r="X23" s="3">
         <v>-400</v>
@@ -2024,11 +2067,11 @@
         <v>-400</v>
       </c>
       <c r="Z23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
@@ -2041,8 +2084,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2068,20 +2114,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2130,8 +2176,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,70 +2268,73 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
       </c>
       <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-400</v>
       </c>
       <c r="X26" s="3">
         <v>-400</v>
@@ -2291,11 +2343,11 @@
         <v>-400</v>
       </c>
       <c r="Z26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -2308,70 +2360,73 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
       </c>
       <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-400</v>
@@ -2380,11 +2435,11 @@
         <v>-400</v>
       </c>
       <c r="Z27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -2397,8 +2452,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,13 +2820,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2783,29 +2853,29 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2825,11 +2895,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2842,70 +2912,73 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-400</v>
@@ -2914,11 +2987,11 @@
         <v>-400</v>
       </c>
       <c r="Z33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
@@ -2931,8 +3004,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,70 +3096,73 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-400</v>
@@ -3092,11 +3171,11 @@
         <v>-400</v>
       </c>
       <c r="Z35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
@@ -3109,102 +3188,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43069</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42978</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42886</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42794</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,50 +3355,51 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>8600</v>
       </c>
       <c r="J41" s="3">
         <v>8600</v>
       </c>
       <c r="K41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -3320,11 +3407,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -3358,8 +3445,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,8 +3537,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3456,28 +3549,28 @@
         <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3489,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>7400</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>1300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3510,7 +3603,7 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3519,11 +3612,11 @@
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3536,8 +3629,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3548,53 +3644,53 @@
         <v>800</v>
       </c>
       <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3706,8 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
+      <c r="AA44" s="3">
+        <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>4</v>
@@ -3625,73 +3721,76 @@
       <c r="AE44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>5900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>700</v>
       </c>
       <c r="U45" s="3">
         <v>700</v>
       </c>
       <c r="V45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="W45" s="3">
         <v>600</v>
       </c>
       <c r="X45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y45" s="3">
         <v>700</v>
@@ -3699,8 +3798,8 @@
       <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>700</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
@@ -3714,67 +3813,70 @@
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2000</v>
       </c>
       <c r="F46" s="3">
         <v>2000</v>
       </c>
       <c r="G46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
-      </c>
-      <c r="V46" s="3">
-        <v>700</v>
       </c>
       <c r="W46" s="3">
         <v>700</v>
@@ -3783,13 +3885,13 @@
         <v>700</v>
       </c>
       <c r="Y46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Z46" s="3">
         <v>800</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
@@ -3803,8 +3905,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3832,8 +3937,8 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -3850,8 +3955,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3892,43 +3997,46 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3937,7 +4045,7 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -3946,28 +4054,28 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
+        <v>300</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1500</v>
       </c>
       <c r="W48" s="3">
         <v>1500</v>
       </c>
       <c r="X48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1700</v>
       </c>
       <c r="Z48" s="3">
         <v>1700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
+      <c r="AA48" s="3">
+        <v>1700</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
@@ -3981,8 +4089,11 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4010,8 +4121,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -4028,8 +4139,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4274,8 +4394,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -4292,8 +4412,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4301,8 +4421,8 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -4319,8 +4439,8 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4337,8 +4457,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,83 +4549,86 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>8100</v>
       </c>
       <c r="N54" s="3">
         <v>8100</v>
       </c>
       <c r="O54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2600</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
@@ -4515,8 +4641,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,28 +4711,29 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -4611,7 +4742,7 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4641,37 +4772,40 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
-      </c>
-      <c r="X57" s="3">
-        <v>900</v>
       </c>
       <c r="Y57" s="3">
         <v>900</v>
       </c>
       <c r="Z57" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4697,11 +4831,11 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4717,8 +4851,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4733,20 +4867,20 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>1300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1200</v>
       </c>
       <c r="Y58" s="3">
         <v>1200</v>
       </c>
       <c r="Z58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4759,85 +4893,88 @@
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>900</v>
       </c>
       <c r="S59" s="3">
+        <v>900</v>
+      </c>
+      <c r="T59" s="3">
         <v>2300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>4200</v>
       </c>
       <c r="U59" s="3">
         <v>4200</v>
       </c>
       <c r="V59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W59" s="3">
         <v>4600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3900</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>4000</v>
       </c>
       <c r="Z59" s="3">
         <v>4000</v>
       </c>
       <c r="AA59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>200</v>
       </c>
       <c r="AC59" s="3">
         <v>200</v>
@@ -4846,87 +4983,90 @@
         <v>200</v>
       </c>
       <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>200</v>
       </c>
       <c r="AC60" s="3">
         <v>200</v>
@@ -4935,10 +5075,13 @@
         <v>200</v>
       </c>
       <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5026,8 +5169,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5041,23 +5187,23 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -5074,19 +5220,19 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>100</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -5115,8 +5261,11 @@
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,85 +5537,88 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>200</v>
       </c>
       <c r="AC66" s="3">
         <v>200</v>
@@ -5469,10 +5627,13 @@
         <v>200</v>
       </c>
       <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,82 +6031,85 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-400</v>
       </c>
       <c r="AB72" s="3">
         <v>-400</v>
@@ -5944,13 +6118,16 @@
         <v>-400</v>
       </c>
       <c r="AD72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="AE72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,85 +6399,88 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-3600</v>
       </c>
       <c r="Y76" s="3">
         <v>-3600</v>
       </c>
       <c r="Z76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-200</v>
       </c>
       <c r="AC76" s="3">
         <v>-200</v>
@@ -6303,10 +6489,13 @@
         <v>-200</v>
       </c>
       <c r="AE76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,164 +6583,170 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43069</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42978</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42886</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42794</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42704</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-400</v>
@@ -6560,11 +6755,11 @@
         <v>-400</v>
       </c>
       <c r="Z81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
@@ -6577,8 +6772,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,8 +6808,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6625,7 +6824,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6634,11 +6833,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -6682,11 +6881,11 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6699,8 +6898,11 @@
       <c r="AE83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,8 +7358,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7153,77 +7370,77 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-200</v>
       </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
@@ -7233,8 +7450,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,25 +7486,26 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -7298,26 +7519,26 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -7325,23 +7546,23 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
@@ -7355,8 +7576,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,62 +7760,65 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7607,8 +7837,8 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
@@ -7616,14 +7846,17 @@
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,86 +8254,89 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
-      </c>
-      <c r="V100" s="3">
-        <v>400</v>
       </c>
       <c r="W100" s="3">
         <v>400</v>
       </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
@@ -8100,8 +8346,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8112,50 +8361,50 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>200</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -8174,8 +8423,8 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
+      <c r="AA101" s="3">
+        <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>4</v>
@@ -8189,62 +8438,65 @@
       <c r="AE101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>5300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -8276,6 +8528,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
